--- a/demo/py_outputs/Village_UP_West.xlsx
+++ b/demo/py_outputs/Village_UP_West.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="87">
   <si>
     <t>censuscode2011</t>
   </si>
@@ -217,82 +217,13 @@
     <t>Sika Rauda</t>
   </si>
   <si>
-    <t>Kaptanganj</t>
-  </si>
-  <si>
-    <t>Asroi</t>
-  </si>
-  <si>
-    <t>Kunjalpur</t>
-  </si>
-  <si>
-    <t>Berni</t>
-  </si>
-  <si>
-    <t>Bawali</t>
-  </si>
-  <si>
-    <t>Sithrauli</t>
-  </si>
-  <si>
-    <t>Udhena</t>
-  </si>
-  <si>
-    <t>Nagla Salem</t>
-  </si>
-  <si>
-    <t>Saleh Pur Chandwara</t>
-  </si>
-  <si>
-    <t>Manik Pur</t>
-  </si>
-  <si>
-    <t>Madaura</t>
-  </si>
-  <si>
-    <t>Dohai</t>
-  </si>
-  <si>
-    <t>Manipur</t>
-  </si>
-  <si>
-    <t>Lalpur</t>
-  </si>
-  <si>
-    <t>Mahrara</t>
-  </si>
-  <si>
-    <t>Nagla Dhaurpur</t>
-  </si>
-  <si>
-    <t>Kokna Kalan</t>
-  </si>
-  <si>
-    <t>Nagalabandi</t>
-  </si>
-  <si>
-    <t>Kodra</t>
-  </si>
-  <si>
     <t>Baman</t>
   </si>
   <si>
-    <t>Throoa</t>
-  </si>
-  <si>
-    <t>Suraya</t>
-  </si>
-  <si>
-    <t>Kutilabatolar</t>
-  </si>
-  <si>
-    <t>Isonda</t>
-  </si>
-  <si>
-    <t>Lalpur Mahavan</t>
-  </si>
-  <si>
-    <t>Alampur</t>
+    <t>Uncha</t>
+  </si>
+  <si>
+    <t>Bailoth</t>
   </si>
   <si>
     <t>Aligarh</t>
@@ -301,21 +232,6 @@
     <t>Agra</t>
   </si>
   <si>
-    <t>Kushi Nagar</t>
-  </si>
-  <si>
-    <t>Etah</t>
-  </si>
-  <si>
-    <t>Hathras</t>
-  </si>
-  <si>
-    <t>Firozabad</t>
-  </si>
-  <si>
-    <t>Mathura</t>
-  </si>
-  <si>
     <t>Uttar Pradesh</t>
   </si>
   <si>
@@ -331,9 +247,6 @@
     <t>Categ-7</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>[118]</t>
   </si>
   <si>
@@ -343,24 +256,9 @@
     <t>[117]</t>
   </si>
   <si>
-    <t>[117, 125]</t>
-  </si>
-  <si>
-    <t>[102]</t>
-  </si>
-  <si>
-    <t>[105]</t>
-  </si>
-  <si>
     <t>Tundla</t>
   </si>
   <si>
-    <t>Tundla, Captainganj</t>
-  </si>
-  <si>
-    <t>Jalesar</t>
-  </si>
-  <si>
     <t>UP</t>
   </si>
   <si>
@@ -373,19 +271,10 @@
     <t>27.227812,78.230427</t>
   </si>
   <si>
-    <t>27.5695990,78.0613381</t>
-  </si>
-  <si>
-    <t>27.466723,78.2947265</t>
-  </si>
-  <si>
     <t>West</t>
   </si>
   <si>
     <t>Srifin</t>
-  </si>
-  <si>
-    <t>Axis</t>
   </si>
 </sst>
 </file>
@@ -743,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T75"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -822,10 +711,10 @@
         <v>202128</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F2">
         <v>2475</v>
@@ -834,31 +723,31 @@
         <v>431</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="N2" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="P2" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="Q2">
         <v>27.9150648</v>
@@ -867,10 +756,10 @@
         <v>78.11350040000001</v>
       </c>
       <c r="S2" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T2" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -884,10 +773,10 @@
         <v>202128</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F3">
         <v>20238</v>
@@ -896,31 +785,31 @@
         <v>3358</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="L3" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="N3" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O3" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="P3" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="Q3">
         <v>27.9150648</v>
@@ -929,10 +818,10 @@
         <v>78.11350040000001</v>
       </c>
       <c r="S3" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T3" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -946,10 +835,10 @@
         <v>202128</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F4">
         <v>1419</v>
@@ -958,31 +847,31 @@
         <v>247</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="L4" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="M4" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="Q4">
         <v>27.9150648</v>
@@ -991,10 +880,10 @@
         <v>78.11350040000001</v>
       </c>
       <c r="S4" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T4" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1008,10 +897,10 @@
         <v>202128</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <v>979</v>
@@ -1020,31 +909,31 @@
         <v>157</v>
       </c>
       <c r="H5" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="Q5">
         <v>27.9150648</v>
@@ -1053,10 +942,10 @@
         <v>78.11350040000001</v>
       </c>
       <c r="S5" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T5" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1070,10 +959,10 @@
         <v>202128</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F6">
         <v>891</v>
@@ -1082,31 +971,31 @@
         <v>169</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="M6" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="N6" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="P6" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="Q6">
         <v>27.9150648</v>
@@ -1115,10 +1004,10 @@
         <v>78.11350040000001</v>
       </c>
       <c r="S6" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T6" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1132,10 +1021,10 @@
         <v>202128</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F7">
         <v>2437</v>
@@ -1144,31 +1033,31 @@
         <v>349</v>
       </c>
       <c r="H7" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="M7" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="Q7">
         <v>27.9150648</v>
@@ -1177,10 +1066,10 @@
         <v>78.11350040000001</v>
       </c>
       <c r="S7" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T7" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1194,10 +1083,10 @@
         <v>283122</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F8">
         <v>662</v>
@@ -1206,16 +1095,16 @@
         <v>108</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J8">
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
         <v>31</v>
@@ -1224,13 +1113,13 @@
         <v>31</v>
       </c>
       <c r="N8" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O8" t="s">
         <v>31</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q8">
         <v>27.1392655</v>
@@ -1239,10 +1128,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S8" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T8" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1256,10 +1145,10 @@
         <v>283122</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F9">
         <v>1798</v>
@@ -1268,16 +1157,16 @@
         <v>281</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J9">
         <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L9" t="s">
         <v>31</v>
@@ -1286,13 +1175,13 @@
         <v>31</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O9" t="s">
         <v>31</v>
       </c>
       <c r="P9" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q9">
         <v>27.1392655</v>
@@ -1301,10 +1190,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S9" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T9" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1318,10 +1207,10 @@
         <v>283122</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F10">
         <v>3223</v>
@@ -1330,16 +1219,16 @@
         <v>494</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
         <v>31</v>
@@ -1348,13 +1237,13 @@
         <v>31</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O10" t="s">
         <v>31</v>
       </c>
       <c r="P10" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q10">
         <v>27.1392655</v>
@@ -1363,10 +1252,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S10" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T10" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1380,10 +1269,10 @@
         <v>283122</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F11">
         <v>3545</v>
@@ -1392,16 +1281,16 @@
         <v>579</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J11">
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
         <v>31</v>
@@ -1410,13 +1299,13 @@
         <v>31</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O11" t="s">
         <v>31</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q11">
         <v>27.1392655</v>
@@ -1425,10 +1314,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S11" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T11" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1442,10 +1331,10 @@
         <v>283110</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F12">
         <v>1535</v>
@@ -1454,16 +1343,16 @@
         <v>247</v>
       </c>
       <c r="H12" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L12" t="s">
         <v>31</v>
@@ -1472,13 +1361,13 @@
         <v>31</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O12" t="s">
         <v>31</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q12">
         <v>27.1392655</v>
@@ -1487,10 +1376,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S12" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T12" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1504,10 +1393,10 @@
         <v>283122</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F13">
         <v>23788</v>
@@ -1516,16 +1405,16 @@
         <v>3423</v>
       </c>
       <c r="H13" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J13">
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L13" t="s">
         <v>31</v>
@@ -1534,13 +1423,13 @@
         <v>31</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O13" t="s">
         <v>31</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q13">
         <v>27.1392655</v>
@@ -1549,10 +1438,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S13" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T13" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1566,10 +1455,10 @@
         <v>283122</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F14">
         <v>4362</v>
@@ -1578,16 +1467,16 @@
         <v>698</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s">
         <v>31</v>
@@ -1596,13 +1485,13 @@
         <v>31</v>
       </c>
       <c r="N14" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O14" t="s">
         <v>31</v>
       </c>
       <c r="P14" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q14">
         <v>27.1392655</v>
@@ -1611,10 +1500,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S14" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T14" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1628,10 +1517,10 @@
         <v>283110</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F15">
         <v>895</v>
@@ -1640,16 +1529,16 @@
         <v>131</v>
       </c>
       <c r="H15" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L15" t="s">
         <v>31</v>
@@ -1658,13 +1547,13 @@
         <v>31</v>
       </c>
       <c r="N15" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O15" t="s">
         <v>31</v>
       </c>
       <c r="P15" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q15">
         <v>27.1392655</v>
@@ -1673,10 +1562,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S15" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T15" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1690,10 +1579,10 @@
         <v>283110</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F16">
         <v>4619</v>
@@ -1702,16 +1591,16 @@
         <v>740</v>
       </c>
       <c r="H16" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="J16">
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L16" t="s">
         <v>31</v>
@@ -1720,13 +1609,13 @@
         <v>31</v>
       </c>
       <c r="N16" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O16" t="s">
         <v>31</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q16">
         <v>27.1392655</v>
@@ -1735,10 +1624,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S16" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T16" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1752,10 +1641,10 @@
         <v>283110</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F17">
         <v>1337</v>
@@ -1764,16 +1653,16 @@
         <v>191</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L17" t="s">
         <v>31</v>
@@ -1782,13 +1671,13 @@
         <v>31</v>
       </c>
       <c r="N17" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O17" t="s">
         <v>31</v>
       </c>
       <c r="P17" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q17">
         <v>27.1392655</v>
@@ -1797,10 +1686,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S17" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T17" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1814,10 +1703,10 @@
         <v>283110</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F18">
         <v>4446</v>
@@ -1826,16 +1715,16 @@
         <v>670</v>
       </c>
       <c r="H18" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L18" t="s">
         <v>31</v>
@@ -1844,13 +1733,13 @@
         <v>31</v>
       </c>
       <c r="N18" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O18" t="s">
         <v>31</v>
       </c>
       <c r="P18" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q18">
         <v>27.1392655</v>
@@ -1859,10 +1748,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S18" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T18" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1876,10 +1765,10 @@
         <v>283110</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F19">
         <v>1652</v>
@@ -1888,16 +1777,16 @@
         <v>241</v>
       </c>
       <c r="H19" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L19" t="s">
         <v>31</v>
@@ -1906,13 +1795,13 @@
         <v>31</v>
       </c>
       <c r="N19" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O19" t="s">
         <v>31</v>
       </c>
       <c r="P19" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q19">
         <v>27.1392655</v>
@@ -1921,10 +1810,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S19" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T19" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1938,10 +1827,10 @@
         <v>282008</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F20">
         <v>7884</v>
@@ -1950,16 +1839,16 @@
         <v>1230</v>
       </c>
       <c r="H20" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J20">
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L20" t="s">
         <v>31</v>
@@ -1968,13 +1857,13 @@
         <v>31</v>
       </c>
       <c r="N20" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O20" t="s">
         <v>31</v>
       </c>
       <c r="P20" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q20">
         <v>27.1392655</v>
@@ -1983,10 +1872,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S20" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T20" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2000,10 +1889,10 @@
         <v>283110</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F21">
         <v>2905</v>
@@ -2012,16 +1901,16 @@
         <v>486</v>
       </c>
       <c r="H21" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L21" t="s">
         <v>31</v>
@@ -2030,13 +1919,13 @@
         <v>31</v>
       </c>
       <c r="N21" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O21" t="s">
         <v>31</v>
       </c>
       <c r="P21" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q21">
         <v>27.1392655</v>
@@ -2045,10 +1934,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S21" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T21" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2062,10 +1951,10 @@
         <v>283126</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F22">
         <v>4922</v>
@@ -2074,31 +1963,31 @@
         <v>802</v>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J22">
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="L22" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="M22" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="N22" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O22" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="Q22">
         <v>27.227812</v>
@@ -2107,10 +1996,10 @@
         <v>78.23042700000001</v>
       </c>
       <c r="S22" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T22" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2124,10 +2013,10 @@
         <v>283122</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F23">
         <v>623</v>
@@ -2136,16 +2025,16 @@
         <v>90</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L23" t="s">
         <v>31</v>
@@ -2154,13 +2043,13 @@
         <v>31</v>
       </c>
       <c r="N23" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O23" t="s">
         <v>31</v>
       </c>
       <c r="P23" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q23">
         <v>27.1392655</v>
@@ -2169,10 +2058,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S23" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T23" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2186,10 +2075,10 @@
         <v>283122</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F24">
         <v>5990</v>
@@ -2198,16 +2087,16 @@
         <v>919</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I24" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L24" t="s">
         <v>31</v>
@@ -2216,13 +2105,13 @@
         <v>31</v>
       </c>
       <c r="N24" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O24" t="s">
         <v>31</v>
       </c>
       <c r="P24" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q24">
         <v>27.1392655</v>
@@ -2231,10 +2120,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S24" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T24" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2248,10 +2137,10 @@
         <v>283110</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F25">
         <v>5590</v>
@@ -2260,16 +2149,16 @@
         <v>842</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L25" t="s">
         <v>31</v>
@@ -2278,13 +2167,13 @@
         <v>31</v>
       </c>
       <c r="N25" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O25" t="s">
         <v>31</v>
       </c>
       <c r="P25" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q25">
         <v>27.1392655</v>
@@ -2293,10 +2182,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S25" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T25" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2310,10 +2199,10 @@
         <v>283122</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F26">
         <v>845</v>
@@ -2322,16 +2211,16 @@
         <v>143</v>
       </c>
       <c r="H26" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L26" t="s">
         <v>31</v>
@@ -2340,13 +2229,13 @@
         <v>31</v>
       </c>
       <c r="N26" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O26" t="s">
         <v>31</v>
       </c>
       <c r="P26" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q26">
         <v>27.1392655</v>
@@ -2355,10 +2244,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S26" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T26" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2372,10 +2261,10 @@
         <v>283110</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F27">
         <v>32905</v>
@@ -2384,16 +2273,16 @@
         <v>4936</v>
       </c>
       <c r="H27" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="J27">
         <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L27" t="s">
         <v>31</v>
@@ -2402,13 +2291,13 @@
         <v>31</v>
       </c>
       <c r="N27" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O27" t="s">
         <v>31</v>
       </c>
       <c r="P27" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q27">
         <v>27.1392655</v>
@@ -2417,10 +2306,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S27" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T27" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2434,10 +2323,10 @@
         <v>283110</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F28">
         <v>8754</v>
@@ -2446,16 +2335,16 @@
         <v>1372</v>
       </c>
       <c r="H28" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="J28">
         <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L28" t="s">
         <v>31</v>
@@ -2464,13 +2353,13 @@
         <v>31</v>
       </c>
       <c r="N28" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O28" t="s">
         <v>31</v>
       </c>
       <c r="P28" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q28">
         <v>27.1392655</v>
@@ -2479,10 +2368,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S28" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T28" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2496,10 +2385,10 @@
         <v>283110</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F29">
         <v>2922</v>
@@ -2508,16 +2397,16 @@
         <v>460</v>
       </c>
       <c r="H29" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L29" t="s">
         <v>31</v>
@@ -2526,13 +2415,13 @@
         <v>31</v>
       </c>
       <c r="N29" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O29" t="s">
         <v>31</v>
       </c>
       <c r="P29" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q29">
         <v>27.1392655</v>
@@ -2541,10 +2430,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S29" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T29" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2558,10 +2447,10 @@
         <v>283122</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F30">
         <v>4246</v>
@@ -2570,16 +2459,16 @@
         <v>683</v>
       </c>
       <c r="H30" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I30" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L30" t="s">
         <v>31</v>
@@ -2588,13 +2477,13 @@
         <v>31</v>
       </c>
       <c r="N30" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O30" t="s">
         <v>31</v>
       </c>
       <c r="P30" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q30">
         <v>27.1392655</v>
@@ -2603,10 +2492,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S30" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T30" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2620,10 +2509,10 @@
         <v>283122</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F31">
         <v>2854</v>
@@ -2632,16 +2521,16 @@
         <v>439</v>
       </c>
       <c r="H31" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L31" t="s">
         <v>31</v>
@@ -2650,13 +2539,13 @@
         <v>31</v>
       </c>
       <c r="N31" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O31" t="s">
         <v>31</v>
       </c>
       <c r="P31" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q31">
         <v>27.1392655</v>
@@ -2665,10 +2554,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S31" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T31" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2682,10 +2571,10 @@
         <v>283122</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F32">
         <v>2036</v>
@@ -2694,16 +2583,16 @@
         <v>357</v>
       </c>
       <c r="H32" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I32" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J32">
         <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L32" t="s">
         <v>31</v>
@@ -2712,13 +2601,13 @@
         <v>31</v>
       </c>
       <c r="N32" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O32" t="s">
         <v>31</v>
       </c>
       <c r="P32" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q32">
         <v>27.1392655</v>
@@ -2727,10 +2616,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S32" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T32" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2744,10 +2633,10 @@
         <v>283110</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F33">
         <v>1250</v>
@@ -2756,16 +2645,16 @@
         <v>169</v>
       </c>
       <c r="H33" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="J33">
         <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L33" t="s">
         <v>31</v>
@@ -2774,13 +2663,13 @@
         <v>31</v>
       </c>
       <c r="N33" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O33" t="s">
         <v>31</v>
       </c>
       <c r="P33" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q33">
         <v>27.1392655</v>
@@ -2789,10 +2678,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S33" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T33" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2806,10 +2695,10 @@
         <v>283122</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F34">
         <v>3864</v>
@@ -2818,16 +2707,16 @@
         <v>590</v>
       </c>
       <c r="H34" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J34">
         <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L34" t="s">
         <v>31</v>
@@ -2836,13 +2725,13 @@
         <v>31</v>
       </c>
       <c r="N34" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O34" t="s">
         <v>31</v>
       </c>
       <c r="P34" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q34">
         <v>27.1392655</v>
@@ -2851,10 +2740,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S34" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T34" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2868,10 +2757,10 @@
         <v>283122</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F35">
         <v>3258</v>
@@ -2880,16 +2769,16 @@
         <v>506</v>
       </c>
       <c r="H35" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I35" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L35" t="s">
         <v>31</v>
@@ -2898,13 +2787,13 @@
         <v>31</v>
       </c>
       <c r="N35" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O35" t="s">
         <v>31</v>
       </c>
       <c r="P35" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q35">
         <v>27.1392655</v>
@@ -2913,10 +2802,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S35" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T35" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2930,10 +2819,10 @@
         <v>283122</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F36">
         <v>1881</v>
@@ -2942,16 +2831,16 @@
         <v>264</v>
       </c>
       <c r="H36" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L36" t="s">
         <v>31</v>
@@ -2960,13 +2849,13 @@
         <v>31</v>
       </c>
       <c r="N36" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O36" t="s">
         <v>31</v>
       </c>
       <c r="P36" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q36">
         <v>27.1392655</v>
@@ -2975,10 +2864,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S36" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T36" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2992,10 +2881,10 @@
         <v>283110</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F37">
         <v>3192</v>
@@ -3004,16 +2893,16 @@
         <v>514</v>
       </c>
       <c r="H37" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I37" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L37" t="s">
         <v>31</v>
@@ -3022,13 +2911,13 @@
         <v>31</v>
       </c>
       <c r="N37" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O37" t="s">
         <v>31</v>
       </c>
       <c r="P37" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q37">
         <v>27.1392655</v>
@@ -3037,10 +2926,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S37" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T37" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3054,10 +2943,10 @@
         <v>283122</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F38">
         <v>2842</v>
@@ -3066,16 +2955,16 @@
         <v>429</v>
       </c>
       <c r="H38" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L38" t="s">
         <v>31</v>
@@ -3084,13 +2973,13 @@
         <v>31</v>
       </c>
       <c r="N38" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O38" t="s">
         <v>31</v>
       </c>
       <c r="P38" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q38">
         <v>27.1392655</v>
@@ -3099,10 +2988,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S38" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T38" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3116,10 +3005,10 @@
         <v>283122</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F39">
         <v>1749</v>
@@ -3128,16 +3017,16 @@
         <v>269</v>
       </c>
       <c r="H39" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L39" t="s">
         <v>31</v>
@@ -3146,13 +3035,13 @@
         <v>31</v>
       </c>
       <c r="N39" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O39" t="s">
         <v>31</v>
       </c>
       <c r="P39" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q39">
         <v>27.1392655</v>
@@ -3161,10 +3050,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S39" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T39" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3178,10 +3067,10 @@
         <v>283110</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F40">
         <v>7465</v>
@@ -3190,16 +3079,16 @@
         <v>1188</v>
       </c>
       <c r="H40" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I40" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L40" t="s">
         <v>31</v>
@@ -3208,13 +3097,13 @@
         <v>31</v>
       </c>
       <c r="N40" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O40" t="s">
         <v>31</v>
       </c>
       <c r="P40" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q40">
         <v>27.1392655</v>
@@ -3223,10 +3112,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S40" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T40" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3240,10 +3129,10 @@
         <v>283110</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F41">
         <v>2826</v>
@@ -3252,16 +3141,16 @@
         <v>438</v>
       </c>
       <c r="H41" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L41" t="s">
         <v>31</v>
@@ -3270,13 +3159,13 @@
         <v>31</v>
       </c>
       <c r="N41" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O41" t="s">
         <v>31</v>
       </c>
       <c r="P41" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q41">
         <v>27.1392655</v>
@@ -3285,10 +3174,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S41" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T41" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3302,10 +3191,10 @@
         <v>283110</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E42" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F42">
         <v>1389</v>
@@ -3314,16 +3203,16 @@
         <v>209</v>
       </c>
       <c r="H42" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L42" t="s">
         <v>31</v>
@@ -3332,13 +3221,13 @@
         <v>31</v>
       </c>
       <c r="N42" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O42" t="s">
         <v>31</v>
       </c>
       <c r="P42" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q42">
         <v>27.1392655</v>
@@ -3347,10 +3236,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S42" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T42" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3364,10 +3253,10 @@
         <v>283110</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F43">
         <v>582</v>
@@ -3376,16 +3265,16 @@
         <v>87</v>
       </c>
       <c r="H43" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L43" t="s">
         <v>31</v>
@@ -3394,13 +3283,13 @@
         <v>31</v>
       </c>
       <c r="N43" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O43" t="s">
         <v>31</v>
       </c>
       <c r="P43" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q43">
         <v>27.1392655</v>
@@ -3409,10 +3298,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S43" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T43" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3426,10 +3315,10 @@
         <v>283122</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F44">
         <v>4237</v>
@@ -3438,16 +3327,16 @@
         <v>676</v>
       </c>
       <c r="H44" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J44">
         <v>2</v>
       </c>
       <c r="K44" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L44" t="s">
         <v>31</v>
@@ -3456,13 +3345,13 @@
         <v>31</v>
       </c>
       <c r="N44" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O44" t="s">
         <v>31</v>
       </c>
       <c r="P44" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q44">
         <v>27.1392655</v>
@@ -3471,10 +3360,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S44" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T44" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3488,10 +3377,10 @@
         <v>283110</v>
       </c>
       <c r="D45" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F45">
         <v>454</v>
@@ -3500,16 +3389,16 @@
         <v>83</v>
       </c>
       <c r="H45" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L45" t="s">
         <v>31</v>
@@ -3518,13 +3407,13 @@
         <v>31</v>
       </c>
       <c r="N45" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O45" t="s">
         <v>31</v>
       </c>
       <c r="P45" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q45">
         <v>27.1392655</v>
@@ -3533,10 +3422,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S45" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T45" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3550,10 +3439,10 @@
         <v>283122</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E46" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F46">
         <v>3462</v>
@@ -3562,16 +3451,16 @@
         <v>544</v>
       </c>
       <c r="H46" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L46" t="s">
         <v>31</v>
@@ -3580,13 +3469,13 @@
         <v>31</v>
       </c>
       <c r="N46" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O46" t="s">
         <v>31</v>
       </c>
       <c r="P46" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q46">
         <v>27.1392655</v>
@@ -3595,10 +3484,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S46" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T46" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3612,10 +3501,10 @@
         <v>283122</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F47">
         <v>3037</v>
@@ -3624,16 +3513,16 @@
         <v>459</v>
       </c>
       <c r="H47" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L47" t="s">
         <v>31</v>
@@ -3642,13 +3531,13 @@
         <v>31</v>
       </c>
       <c r="N47" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O47" t="s">
         <v>31</v>
       </c>
       <c r="P47" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q47">
         <v>27.1392655</v>
@@ -3657,10 +3546,10 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S47" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T47" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -3674,10 +3563,10 @@
         <v>283110</v>
       </c>
       <c r="D48" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E48" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F48">
         <v>2871</v>
@@ -3686,16 +3575,16 @@
         <v>466</v>
       </c>
       <c r="H48" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I48" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L48" t="s">
         <v>31</v>
@@ -3704,13 +3593,13 @@
         <v>31</v>
       </c>
       <c r="N48" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O48" t="s">
         <v>31</v>
       </c>
       <c r="P48" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Q48">
         <v>27.1392655</v>
@@ -3719,60 +3608,60 @@
         <v>77.78329100000001</v>
       </c>
       <c r="S48" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T48" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:20">
       <c r="A49">
-        <v>801169</v>
+        <v>124480</v>
       </c>
       <c r="B49" t="s">
         <v>67</v>
       </c>
       <c r="C49">
-        <v>274301</v>
+        <v>283126</v>
       </c>
       <c r="D49" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F49">
-        <v>23526</v>
+        <v>3903</v>
       </c>
       <c r="G49">
-        <v>4043</v>
+        <v>607</v>
       </c>
       <c r="H49" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="I49" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="L49" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="M49" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="N49" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O49" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="P49" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="Q49">
         <v>27.227812</v>
@@ -3781,1622 +3670,134 @@
         <v>78.23042700000001</v>
       </c>
       <c r="S49" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T49" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:20">
       <c r="A50">
-        <v>122904</v>
+        <v>124494</v>
       </c>
       <c r="B50" t="s">
         <v>68</v>
       </c>
       <c r="C50">
-        <v>202145</v>
+        <v>283126</v>
       </c>
       <c r="D50" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F50">
-        <v>3234</v>
+        <v>3266</v>
       </c>
       <c r="G50">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="H50" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I50" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="J50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="L50" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="M50" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="N50" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O50" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="Q50">
-        <v>27.569599</v>
+        <v>27.227812</v>
       </c>
       <c r="R50">
-        <v>78.0613381</v>
+        <v>78.23042700000001</v>
       </c>
       <c r="S50" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T50" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51">
-        <v>215169</v>
+        <v>124478</v>
       </c>
       <c r="B51" t="s">
         <v>69</v>
       </c>
       <c r="C51">
-        <v>281104</v>
+        <v>283126</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E51" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F51">
-        <v>1438</v>
+        <v>1957</v>
       </c>
       <c r="G51">
-        <v>216</v>
+        <v>303</v>
       </c>
       <c r="H51" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I51" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="L51" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="M51" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="N51" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O51" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="P51" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="Q51">
-        <v>27.466723</v>
+        <v>27.227812</v>
       </c>
       <c r="R51">
-        <v>78.2947265</v>
+        <v>78.23042700000001</v>
       </c>
       <c r="S51" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="T51" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
-      <c r="A52">
-        <v>215170</v>
-      </c>
-      <c r="B52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52">
-        <v>281104</v>
-      </c>
-      <c r="D52" t="s">
-        <v>96</v>
-      </c>
-      <c r="E52" t="s">
-        <v>100</v>
-      </c>
-      <c r="F52">
-        <v>3647</v>
-      </c>
-      <c r="G52">
-        <v>590</v>
-      </c>
-      <c r="H52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I52" t="s">
-        <v>103</v>
-      </c>
-      <c r="J52">
-        <v>3</v>
-      </c>
-      <c r="K52" t="s">
-        <v>111</v>
-      </c>
-      <c r="L52" t="s">
-        <v>114</v>
-      </c>
-      <c r="M52" t="s">
-        <v>114</v>
-      </c>
-      <c r="N52" t="s">
-        <v>115</v>
-      </c>
-      <c r="O52" t="s">
-        <v>114</v>
-      </c>
-      <c r="P52" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q52">
-        <v>27.466723</v>
-      </c>
-      <c r="R52">
-        <v>78.2947265</v>
-      </c>
-      <c r="S52" t="s">
-        <v>121</v>
-      </c>
-      <c r="T52" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20">
-      <c r="A53">
-        <v>123555</v>
-      </c>
-      <c r="B53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53">
-        <v>281104</v>
-      </c>
-      <c r="D53" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" t="s">
-        <v>100</v>
-      </c>
-      <c r="F53">
-        <v>963</v>
-      </c>
-      <c r="G53">
-        <v>157</v>
-      </c>
-      <c r="H53" t="s">
-        <v>101</v>
-      </c>
-      <c r="I53" t="s">
-        <v>103</v>
-      </c>
-      <c r="J53">
-        <v>2</v>
-      </c>
-      <c r="K53" t="s">
-        <v>111</v>
-      </c>
-      <c r="L53" t="s">
-        <v>114</v>
-      </c>
-      <c r="M53" t="s">
-        <v>114</v>
-      </c>
-      <c r="N53" t="s">
-        <v>115</v>
-      </c>
-      <c r="O53" t="s">
-        <v>114</v>
-      </c>
-      <c r="P53" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q53">
-        <v>27.466723</v>
-      </c>
-      <c r="R53">
-        <v>78.2947265</v>
-      </c>
-      <c r="S53" t="s">
-        <v>121</v>
-      </c>
-      <c r="T53" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
-      <c r="A54">
-        <v>123218</v>
-      </c>
-      <c r="B54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54">
-        <v>204102</v>
-      </c>
-      <c r="D54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" t="s">
-        <v>100</v>
-      </c>
-      <c r="F54">
-        <v>1448</v>
-      </c>
-      <c r="G54">
-        <v>232</v>
-      </c>
-      <c r="H54" t="s">
-        <v>101</v>
-      </c>
-      <c r="I54" t="s">
-        <v>103</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54" t="s">
-        <v>110</v>
-      </c>
-      <c r="L54" t="s">
-        <v>97</v>
-      </c>
-      <c r="M54" t="s">
-        <v>97</v>
-      </c>
-      <c r="N54" t="s">
-        <v>115</v>
-      </c>
-      <c r="O54" t="s">
-        <v>97</v>
-      </c>
-      <c r="P54" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q54">
-        <v>27.569599</v>
-      </c>
-      <c r="R54">
-        <v>78.0613381</v>
-      </c>
-      <c r="S54" t="s">
-        <v>121</v>
-      </c>
-      <c r="T54" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20">
-      <c r="A55">
-        <v>123551</v>
-      </c>
-      <c r="B55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55">
-        <v>281104</v>
-      </c>
-      <c r="D55" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" t="s">
-        <v>100</v>
-      </c>
-      <c r="F55">
-        <v>1341</v>
-      </c>
-      <c r="G55">
-        <v>228</v>
-      </c>
-      <c r="H55" t="s">
-        <v>101</v>
-      </c>
-      <c r="I55" t="s">
-        <v>103</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55" t="s">
-        <v>111</v>
-      </c>
-      <c r="L55" t="s">
-        <v>114</v>
-      </c>
-      <c r="M55" t="s">
-        <v>114</v>
-      </c>
-      <c r="N55" t="s">
-        <v>115</v>
-      </c>
-      <c r="O55" t="s">
-        <v>114</v>
-      </c>
-      <c r="P55" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q55">
-        <v>27.466723</v>
-      </c>
-      <c r="R55">
-        <v>78.2947265</v>
-      </c>
-      <c r="S55" t="s">
-        <v>121</v>
-      </c>
-      <c r="T55" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20">
-      <c r="A56">
-        <v>123554</v>
-      </c>
-      <c r="B56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56">
-        <v>281104</v>
-      </c>
-      <c r="D56" t="s">
-        <v>97</v>
-      </c>
-      <c r="E56" t="s">
-        <v>100</v>
-      </c>
-      <c r="F56">
-        <v>2943</v>
-      </c>
-      <c r="G56">
-        <v>472</v>
-      </c>
-      <c r="H56" t="s">
-        <v>101</v>
-      </c>
-      <c r="I56" t="s">
-        <v>103</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56" t="s">
-        <v>111</v>
-      </c>
-      <c r="L56" t="s">
-        <v>114</v>
-      </c>
-      <c r="M56" t="s">
-        <v>114</v>
-      </c>
-      <c r="N56" t="s">
-        <v>115</v>
-      </c>
-      <c r="O56" t="s">
-        <v>114</v>
-      </c>
-      <c r="P56" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q56">
-        <v>27.466723</v>
-      </c>
-      <c r="R56">
-        <v>78.2947265</v>
-      </c>
-      <c r="S56" t="s">
-        <v>121</v>
-      </c>
-      <c r="T56" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20">
-      <c r="A57">
-        <v>123556</v>
-      </c>
-      <c r="B57" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57">
-        <v>281104</v>
-      </c>
-      <c r="D57" t="s">
-        <v>97</v>
-      </c>
-      <c r="E57" t="s">
-        <v>100</v>
-      </c>
-      <c r="F57">
-        <v>2649</v>
-      </c>
-      <c r="G57">
-        <v>410</v>
-      </c>
-      <c r="H57" t="s">
-        <v>101</v>
-      </c>
-      <c r="I57" t="s">
-        <v>103</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57" t="s">
-        <v>111</v>
-      </c>
-      <c r="L57" t="s">
-        <v>114</v>
-      </c>
-      <c r="M57" t="s">
-        <v>114</v>
-      </c>
-      <c r="N57" t="s">
-        <v>115</v>
-      </c>
-      <c r="O57" t="s">
-        <v>114</v>
-      </c>
-      <c r="P57" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q57">
-        <v>27.466723</v>
-      </c>
-      <c r="R57">
-        <v>78.2947265</v>
-      </c>
-      <c r="S57" t="s">
-        <v>121</v>
-      </c>
-      <c r="T57" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
-      <c r="A58">
-        <v>123550</v>
-      </c>
-      <c r="B58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58">
-        <v>281104</v>
-      </c>
-      <c r="D58" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" t="s">
-        <v>100</v>
-      </c>
-      <c r="F58">
-        <v>942</v>
-      </c>
-      <c r="G58">
-        <v>158</v>
-      </c>
-      <c r="H58" t="s">
-        <v>101</v>
-      </c>
-      <c r="I58" t="s">
-        <v>103</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58" t="s">
-        <v>110</v>
-      </c>
-      <c r="L58" t="s">
-        <v>97</v>
-      </c>
-      <c r="M58" t="s">
-        <v>97</v>
-      </c>
-      <c r="N58" t="s">
-        <v>115</v>
-      </c>
-      <c r="O58" t="s">
-        <v>97</v>
-      </c>
-      <c r="P58" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q58">
-        <v>27.569599</v>
-      </c>
-      <c r="R58">
-        <v>78.0613381</v>
-      </c>
-      <c r="S58" t="s">
-        <v>121</v>
-      </c>
-      <c r="T58" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20">
-      <c r="A59">
-        <v>123562</v>
-      </c>
-      <c r="B59" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59">
-        <v>281104</v>
-      </c>
-      <c r="D59" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" t="s">
-        <v>100</v>
-      </c>
-      <c r="F59">
-        <v>2067</v>
-      </c>
-      <c r="G59">
-        <v>317</v>
-      </c>
-      <c r="H59" t="s">
-        <v>101</v>
-      </c>
-      <c r="I59" t="s">
-        <v>103</v>
-      </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="K59" t="s">
-        <v>111</v>
-      </c>
-      <c r="L59" t="s">
-        <v>114</v>
-      </c>
-      <c r="M59" t="s">
-        <v>114</v>
-      </c>
-      <c r="N59" t="s">
-        <v>115</v>
-      </c>
-      <c r="O59" t="s">
-        <v>114</v>
-      </c>
-      <c r="P59" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q59">
-        <v>27.466723</v>
-      </c>
-      <c r="R59">
-        <v>78.2947265</v>
-      </c>
-      <c r="S59" t="s">
-        <v>121</v>
-      </c>
-      <c r="T59" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20">
-      <c r="A60">
-        <v>122866</v>
-      </c>
-      <c r="B60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60">
-        <v>202124</v>
-      </c>
-      <c r="D60" t="s">
-        <v>93</v>
-      </c>
-      <c r="E60" t="s">
-        <v>100</v>
-      </c>
-      <c r="F60">
-        <v>744</v>
-      </c>
-      <c r="G60">
-        <v>125</v>
-      </c>
-      <c r="H60" t="s">
-        <v>101</v>
-      </c>
-      <c r="I60" t="s">
-        <v>103</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60" t="s">
-        <v>110</v>
-      </c>
-      <c r="L60" t="s">
-        <v>97</v>
-      </c>
-      <c r="M60" t="s">
-        <v>97</v>
-      </c>
-      <c r="N60" t="s">
-        <v>115</v>
-      </c>
-      <c r="O60" t="s">
-        <v>97</v>
-      </c>
-      <c r="P60" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q60">
-        <v>27.569599</v>
-      </c>
-      <c r="R60">
-        <v>78.0613381</v>
-      </c>
-      <c r="S60" t="s">
-        <v>121</v>
-      </c>
-      <c r="T60" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
-      <c r="A61">
-        <v>123537</v>
-      </c>
-      <c r="B61" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61">
-        <v>281104</v>
-      </c>
-      <c r="D61" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" t="s">
-        <v>100</v>
-      </c>
-      <c r="F61">
-        <v>3389</v>
-      </c>
-      <c r="G61">
-        <v>535</v>
-      </c>
-      <c r="H61" t="s">
-        <v>101</v>
-      </c>
-      <c r="I61" t="s">
-        <v>103</v>
-      </c>
-      <c r="J61">
-        <v>2</v>
-      </c>
-      <c r="K61" t="s">
-        <v>111</v>
-      </c>
-      <c r="L61" t="s">
-        <v>114</v>
-      </c>
-      <c r="M61" t="s">
-        <v>114</v>
-      </c>
-      <c r="N61" t="s">
-        <v>115</v>
-      </c>
-      <c r="O61" t="s">
-        <v>114</v>
-      </c>
-      <c r="P61" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q61">
-        <v>27.466723</v>
-      </c>
-      <c r="R61">
-        <v>78.2947265</v>
-      </c>
-      <c r="S61" t="s">
-        <v>121</v>
-      </c>
-      <c r="T61" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
-      <c r="A62">
-        <v>122903</v>
-      </c>
-      <c r="B62" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62">
-        <v>202145</v>
-      </c>
-      <c r="D62" t="s">
-        <v>93</v>
-      </c>
-      <c r="E62" t="s">
-        <v>100</v>
-      </c>
-      <c r="F62">
-        <v>1071</v>
-      </c>
-      <c r="G62">
-        <v>172</v>
-      </c>
-      <c r="H62" t="s">
-        <v>101</v>
-      </c>
-      <c r="I62" t="s">
-        <v>105</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62" t="s">
-        <v>110</v>
-      </c>
-      <c r="L62" t="s">
-        <v>97</v>
-      </c>
-      <c r="M62" t="s">
-        <v>97</v>
-      </c>
-      <c r="N62" t="s">
-        <v>115</v>
-      </c>
-      <c r="O62" t="s">
-        <v>97</v>
-      </c>
-      <c r="P62" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q62">
-        <v>27.569599</v>
-      </c>
-      <c r="R62">
-        <v>78.0613381</v>
-      </c>
-      <c r="S62" t="s">
-        <v>121</v>
-      </c>
-      <c r="T62" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20">
-      <c r="A63">
-        <v>122861</v>
-      </c>
-      <c r="B63" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63">
-        <v>202124</v>
-      </c>
-      <c r="D63" t="s">
-        <v>93</v>
-      </c>
-      <c r="E63" t="s">
-        <v>100</v>
-      </c>
-      <c r="F63">
-        <v>1656</v>
-      </c>
-      <c r="G63">
-        <v>293</v>
-      </c>
-      <c r="H63" t="s">
-        <v>101</v>
-      </c>
-      <c r="I63" t="s">
-        <v>103</v>
-      </c>
-      <c r="J63">
-        <v>2</v>
-      </c>
-      <c r="K63" t="s">
-        <v>110</v>
-      </c>
-      <c r="L63" t="s">
-        <v>97</v>
-      </c>
-      <c r="M63" t="s">
-        <v>97</v>
-      </c>
-      <c r="N63" t="s">
-        <v>115</v>
-      </c>
-      <c r="O63" t="s">
-        <v>97</v>
-      </c>
-      <c r="P63" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q63">
-        <v>27.569599</v>
-      </c>
-      <c r="R63">
-        <v>78.0613381</v>
-      </c>
-      <c r="S63" t="s">
-        <v>121</v>
-      </c>
-      <c r="T63" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
-      <c r="A64">
-        <v>123565</v>
-      </c>
-      <c r="B64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64">
-        <v>281104</v>
-      </c>
-      <c r="D64" t="s">
-        <v>97</v>
-      </c>
-      <c r="E64" t="s">
-        <v>100</v>
-      </c>
-      <c r="F64">
-        <v>4919</v>
-      </c>
-      <c r="G64">
-        <v>759</v>
-      </c>
-      <c r="H64" t="s">
-        <v>101</v>
-      </c>
-      <c r="I64" t="s">
-        <v>103</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64" t="s">
-        <v>111</v>
-      </c>
-      <c r="L64" t="s">
-        <v>114</v>
-      </c>
-      <c r="M64" t="s">
-        <v>114</v>
-      </c>
-      <c r="N64" t="s">
-        <v>115</v>
-      </c>
-      <c r="O64" t="s">
-        <v>114</v>
-      </c>
-      <c r="P64" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q64">
-        <v>27.466723</v>
-      </c>
-      <c r="R64">
-        <v>78.2947265</v>
-      </c>
-      <c r="S64" t="s">
-        <v>121</v>
-      </c>
-      <c r="T64" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20">
-      <c r="A65">
-        <v>123203</v>
-      </c>
-      <c r="B65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65">
-        <v>204102</v>
-      </c>
-      <c r="D65" t="s">
-        <v>97</v>
-      </c>
-      <c r="E65" t="s">
-        <v>100</v>
-      </c>
-      <c r="F65">
-        <v>1160</v>
-      </c>
-      <c r="G65">
-        <v>210</v>
-      </c>
-      <c r="H65" t="s">
-        <v>101</v>
-      </c>
-      <c r="I65" t="s">
-        <v>103</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65" t="s">
-        <v>110</v>
-      </c>
-      <c r="L65" t="s">
-        <v>97</v>
-      </c>
-      <c r="M65" t="s">
-        <v>97</v>
-      </c>
-      <c r="N65" t="s">
-        <v>115</v>
-      </c>
-      <c r="O65" t="s">
-        <v>97</v>
-      </c>
-      <c r="P65" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q65">
-        <v>27.569599</v>
-      </c>
-      <c r="R65">
-        <v>78.0613381</v>
-      </c>
-      <c r="S65" t="s">
-        <v>121</v>
-      </c>
-      <c r="T65" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20">
-      <c r="A66">
-        <v>123544</v>
-      </c>
-      <c r="B66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66">
-        <v>281104</v>
-      </c>
-      <c r="D66" t="s">
-        <v>97</v>
-      </c>
-      <c r="E66" t="s">
-        <v>100</v>
-      </c>
-      <c r="F66">
-        <v>1829</v>
-      </c>
-      <c r="G66">
-        <v>307</v>
-      </c>
-      <c r="H66" t="s">
-        <v>101</v>
-      </c>
-      <c r="I66" t="s">
-        <v>103</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L66" t="s">
-        <v>97</v>
-      </c>
-      <c r="M66" t="s">
-        <v>97</v>
-      </c>
-      <c r="N66" t="s">
-        <v>115</v>
-      </c>
-      <c r="O66" t="s">
-        <v>97</v>
-      </c>
-      <c r="P66" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q66">
-        <v>27.569599</v>
-      </c>
-      <c r="R66">
-        <v>78.0613381</v>
-      </c>
-      <c r="S66" t="s">
-        <v>121</v>
-      </c>
-      <c r="T66" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20">
-      <c r="A67">
-        <v>214769</v>
-      </c>
-      <c r="B67" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67">
-        <v>207002</v>
-      </c>
-      <c r="D67" t="s">
-        <v>96</v>
-      </c>
-      <c r="E67" t="s">
-        <v>100</v>
-      </c>
-      <c r="F67">
-        <v>1311</v>
-      </c>
-      <c r="G67">
-        <v>209</v>
-      </c>
-      <c r="H67" t="s">
-        <v>101</v>
-      </c>
-      <c r="I67" t="s">
-        <v>104</v>
-      </c>
-      <c r="J67">
-        <v>2</v>
-      </c>
-      <c r="K67" t="s">
-        <v>111</v>
-      </c>
-      <c r="L67" t="s">
-        <v>114</v>
-      </c>
-      <c r="M67" t="s">
-        <v>114</v>
-      </c>
-      <c r="N67" t="s">
-        <v>115</v>
-      </c>
-      <c r="O67" t="s">
-        <v>114</v>
-      </c>
-      <c r="P67" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q67">
-        <v>27.466723</v>
-      </c>
-      <c r="R67">
-        <v>78.2947265</v>
-      </c>
-      <c r="S67" t="s">
-        <v>121</v>
-      </c>
-      <c r="T67" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
-      <c r="A68">
-        <v>125659</v>
-      </c>
-      <c r="B68" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68">
-        <v>283152</v>
-      </c>
-      <c r="D68" t="s">
-        <v>98</v>
-      </c>
-      <c r="E68" t="s">
-        <v>100</v>
-      </c>
-      <c r="F68">
-        <v>4500</v>
-      </c>
-      <c r="G68">
-        <v>705</v>
-      </c>
-      <c r="H68" t="s">
-        <v>101</v>
-      </c>
-      <c r="I68" t="s">
-        <v>105</v>
-      </c>
-      <c r="J68">
-        <v>2</v>
-      </c>
-      <c r="K68" t="s">
-        <v>111</v>
-      </c>
-      <c r="L68" t="s">
-        <v>114</v>
-      </c>
-      <c r="M68" t="s">
-        <v>114</v>
-      </c>
-      <c r="N68" t="s">
-        <v>115</v>
-      </c>
-      <c r="O68" t="s">
-        <v>114</v>
-      </c>
-      <c r="P68" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q68">
-        <v>27.466723</v>
-      </c>
-      <c r="R68">
-        <v>78.2947265</v>
-      </c>
-      <c r="S68" t="s">
-        <v>121</v>
-      </c>
-      <c r="T68" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20">
-      <c r="A69">
-        <v>124480</v>
-      </c>
-      <c r="B69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69">
-        <v>283126</v>
-      </c>
-      <c r="D69" t="s">
-        <v>94</v>
-      </c>
-      <c r="E69" t="s">
-        <v>100</v>
-      </c>
-      <c r="F69">
-        <v>3903</v>
-      </c>
-      <c r="G69">
-        <v>607</v>
-      </c>
-      <c r="H69" t="s">
-        <v>101</v>
-      </c>
-      <c r="I69" t="s">
-        <v>103</v>
-      </c>
-      <c r="J69">
-        <v>2</v>
-      </c>
-      <c r="K69" t="s">
-        <v>111</v>
-      </c>
-      <c r="L69" t="s">
-        <v>114</v>
-      </c>
-      <c r="M69" t="s">
-        <v>114</v>
-      </c>
-      <c r="N69" t="s">
-        <v>115</v>
-      </c>
-      <c r="O69" t="s">
-        <v>114</v>
-      </c>
-      <c r="P69" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q69">
-        <v>27.466723</v>
-      </c>
-      <c r="R69">
-        <v>78.2947265</v>
-      </c>
-      <c r="S69" t="s">
-        <v>121</v>
-      </c>
-      <c r="T69" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20">
-      <c r="A70">
-        <v>125666</v>
-      </c>
-      <c r="B70" t="s">
-        <v>87</v>
-      </c>
-      <c r="C70">
-        <v>283152</v>
-      </c>
-      <c r="D70" t="s">
-        <v>98</v>
-      </c>
-      <c r="E70" t="s">
-        <v>100</v>
-      </c>
-      <c r="F70">
-        <v>1529</v>
-      </c>
-      <c r="G70">
-        <v>241</v>
-      </c>
-      <c r="H70" t="s">
-        <v>101</v>
-      </c>
-      <c r="I70" t="s">
-        <v>105</v>
-      </c>
-      <c r="J70">
-        <v>4</v>
-      </c>
-      <c r="K70" t="s">
-        <v>111</v>
-      </c>
-      <c r="L70" t="s">
-        <v>114</v>
-      </c>
-      <c r="M70" t="s">
-        <v>114</v>
-      </c>
-      <c r="N70" t="s">
-        <v>115</v>
-      </c>
-      <c r="O70" t="s">
-        <v>114</v>
-      </c>
-      <c r="P70" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q70">
-        <v>27.466723</v>
-      </c>
-      <c r="R70">
-        <v>78.2947265</v>
-      </c>
-      <c r="S70" t="s">
-        <v>121</v>
-      </c>
-      <c r="T70" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20">
-      <c r="A71">
-        <v>125658</v>
-      </c>
-      <c r="B71" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71">
-        <v>283152</v>
-      </c>
-      <c r="D71" t="s">
-        <v>98</v>
-      </c>
-      <c r="E71" t="s">
-        <v>100</v>
-      </c>
-      <c r="F71">
-        <v>1638</v>
-      </c>
-      <c r="G71">
-        <v>275</v>
-      </c>
-      <c r="H71" t="s">
-        <v>101</v>
-      </c>
-      <c r="I71" t="s">
-        <v>105</v>
-      </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="K71" t="s">
-        <v>111</v>
-      </c>
-      <c r="L71" t="s">
-        <v>114</v>
-      </c>
-      <c r="M71" t="s">
-        <v>114</v>
-      </c>
-      <c r="N71" t="s">
-        <v>115</v>
-      </c>
-      <c r="O71" t="s">
-        <v>114</v>
-      </c>
-      <c r="P71" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q71">
-        <v>27.466723</v>
-      </c>
-      <c r="R71">
-        <v>78.2947265</v>
-      </c>
-      <c r="S71" t="s">
-        <v>121</v>
-      </c>
-      <c r="T71" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20">
-      <c r="A72">
-        <v>125708</v>
-      </c>
-      <c r="B72" t="s">
-        <v>89</v>
-      </c>
-      <c r="C72">
-        <v>283152</v>
-      </c>
-      <c r="D72" t="s">
-        <v>98</v>
-      </c>
-      <c r="E72" t="s">
-        <v>100</v>
-      </c>
-      <c r="F72">
-        <v>968</v>
-      </c>
-      <c r="G72">
-        <v>173</v>
-      </c>
-      <c r="H72" t="s">
-        <v>101</v>
-      </c>
-      <c r="I72" t="s">
-        <v>105</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72" t="s">
-        <v>111</v>
-      </c>
-      <c r="L72" t="s">
-        <v>114</v>
-      </c>
-      <c r="M72" t="s">
-        <v>114</v>
-      </c>
-      <c r="N72" t="s">
-        <v>115</v>
-      </c>
-      <c r="O72" t="s">
-        <v>114</v>
-      </c>
-      <c r="P72" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q72">
-        <v>27.466723</v>
-      </c>
-      <c r="R72">
-        <v>78.2947265</v>
-      </c>
-      <c r="S72" t="s">
-        <v>121</v>
-      </c>
-      <c r="T72" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20">
-      <c r="A73">
-        <v>123561</v>
-      </c>
-      <c r="B73" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73">
-        <v>281104</v>
-      </c>
-      <c r="D73" t="s">
-        <v>97</v>
-      </c>
-      <c r="E73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F73">
-        <v>1860</v>
-      </c>
-      <c r="G73">
-        <v>307</v>
-      </c>
-      <c r="H73" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" t="s">
-        <v>103</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73" t="s">
-        <v>111</v>
-      </c>
-      <c r="L73" t="s">
-        <v>114</v>
-      </c>
-      <c r="M73" t="s">
-        <v>114</v>
-      </c>
-      <c r="N73" t="s">
-        <v>115</v>
-      </c>
-      <c r="O73" t="s">
-        <v>114</v>
-      </c>
-      <c r="P73" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q73">
-        <v>27.466723</v>
-      </c>
-      <c r="R73">
-        <v>78.2947265</v>
-      </c>
-      <c r="S73" t="s">
-        <v>121</v>
-      </c>
-      <c r="T73" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20">
-      <c r="A74">
-        <v>124028</v>
-      </c>
-      <c r="B74" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74">
-        <v>281204</v>
-      </c>
-      <c r="D74" t="s">
-        <v>99</v>
-      </c>
-      <c r="E74" t="s">
-        <v>100</v>
-      </c>
-      <c r="F74">
-        <v>2689</v>
-      </c>
-      <c r="G74">
-        <v>425</v>
-      </c>
-      <c r="H74" t="s">
-        <v>101</v>
-      </c>
-      <c r="I74" t="s">
-        <v>103</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="K74" t="s">
-        <v>110</v>
-      </c>
-      <c r="L74" t="s">
-        <v>97</v>
-      </c>
-      <c r="M74" t="s">
-        <v>97</v>
-      </c>
-      <c r="N74" t="s">
-        <v>115</v>
-      </c>
-      <c r="O74" t="s">
-        <v>97</v>
-      </c>
-      <c r="P74" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q74">
-        <v>27.569599</v>
-      </c>
-      <c r="R74">
-        <v>78.0613381</v>
-      </c>
-      <c r="S74" t="s">
-        <v>121</v>
-      </c>
-      <c r="T74" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20">
-      <c r="A75">
-        <v>122676</v>
-      </c>
-      <c r="B75" t="s">
-        <v>92</v>
-      </c>
-      <c r="C75">
-        <v>202170</v>
-      </c>
-      <c r="D75" t="s">
-        <v>93</v>
-      </c>
-      <c r="E75" t="s">
-        <v>100</v>
-      </c>
-      <c r="F75">
-        <v>1313</v>
-      </c>
-      <c r="G75">
-        <v>213</v>
-      </c>
-      <c r="H75" t="s">
-        <v>101</v>
-      </c>
-      <c r="I75" t="s">
-        <v>104</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="K75" t="s">
-        <v>110</v>
-      </c>
-      <c r="L75" t="s">
-        <v>97</v>
-      </c>
-      <c r="M75" t="s">
-        <v>97</v>
-      </c>
-      <c r="N75" t="s">
-        <v>115</v>
-      </c>
-      <c r="O75" t="s">
-        <v>97</v>
-      </c>
-      <c r="P75" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q75">
-        <v>27.569599</v>
-      </c>
-      <c r="R75">
-        <v>78.0613381</v>
-      </c>
-      <c r="S75" t="s">
-        <v>121</v>
-      </c>
-      <c r="T75" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
